--- a/excel/finalData.xlsx
+++ b/excel/finalData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\Betriebsysteme\fs-benchmark\r_analysis\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\Betriebsysteme\fs-benchmark\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E840C75C-A404-4498-BF92-4113206A02DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC22F66A-1F30-48D3-B52D-F508E2BBED47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0F741BA0-E108-4139-B01F-EEC160FB55B9}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5680,7 +5680,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FA43F7D-CD68-4BA8-B4C2-E00922CC1787}" name="PivotTable4" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FA43F7D-CD68-4BA8-B4C2-E00922CC1787}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
